--- a/2021.xlsx
+++ b/2021.xlsx
@@ -50,19 +50,19 @@
     <t>Pekan 1</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>Juz</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>Murajaah</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Sakit</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,16 +407,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,7 +429,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="49.5">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>8</v>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\rekap-tahfidz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20895" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Februari" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+  <si>
+    <t>Pekan 1</t>
+  </si>
+  <si>
+    <t>Juz</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>Murajaah</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
   <si>
     <t>Abdullah Azzam</t>
   </si>
@@ -47,34 +55,52 @@
     <t>Syamil Muwahhiduddien</t>
   </si>
   <si>
-    <t>Pekan 1</t>
-  </si>
-  <si>
-    <t>Juz</t>
-  </si>
-  <si>
-    <t>Baru</t>
-  </si>
-  <si>
-    <t>Murajaah</t>
-  </si>
-  <si>
-    <t>Izin</t>
-  </si>
-  <si>
-    <t>Sakit</t>
+    <t>Inas Afifah</t>
+  </si>
+  <si>
+    <t>Jahrisa Juana</t>
+  </si>
+  <si>
+    <t>Muthia Shofia</t>
+  </si>
+  <si>
+    <t>Nadyne Fathiya Chairinda</t>
+  </si>
+  <si>
+    <t>Nurlayli Ubadah</t>
+  </si>
+  <si>
+    <t>Nada Sabila Syahidah</t>
+  </si>
+  <si>
+    <t>Nada Sahla Syahidah</t>
+  </si>
+  <si>
+    <t>Nur Azizah</t>
+  </si>
+  <si>
+    <t>Salwa</t>
+  </si>
+  <si>
+    <t>Siti Khodijah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,24 +108,367 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,37 +476,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="21" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Good" xfId="30" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="34" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="36" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="37" builtinId="35"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="39" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
+    <cellStyle name="Currency" xfId="41" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -146,7 +800,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -184,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -394,171 +1048,253 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="1" max="1" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="6" width="3.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="48.05" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="49.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2021.xlsx
+++ b/2021.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Pekan 1</t>
+  </si>
+  <si>
+    <t>Pekan 2</t>
+  </si>
+  <si>
+    <t>Pekan 3</t>
+  </si>
+  <si>
+    <t>Pekan 4</t>
+  </si>
+  <si>
+    <t>Pekan 5</t>
   </si>
   <si>
     <t>Juz</t>
@@ -1054,25 +1066,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="6" width="3.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.57142857142857" style="1" customWidth="1"/>
+    <col min="3" max="6" width="2.57142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="12" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28571428571429" style="1" customWidth="1"/>
+    <col min="14" max="24" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3" style="1" customWidth="1"/>
+    <col min="26" max="30" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:30">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,28 +1098,116 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="48.05" spans="1:6">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" ht="48.05" spans="1:30">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1118,7 +1224,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -1132,7 +1238,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1146,7 +1252,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -1154,7 +1260,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1171,7 +1277,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1179,7 +1285,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1193,7 +1299,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>30</v>
@@ -1207,7 +1313,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1221,7 +1327,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -1235,7 +1341,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1249,7 +1355,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -1264,34 +1370,83 @@
     <row r="16" spans="1:1">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -174,11 +174,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +457,10 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -469,7 +469,8 @@
     <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
     <col min="3" max="6" width="2.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="12" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.28515625" style="1" customWidth="1"/>
     <col min="14" max="24" width="2.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
@@ -478,41 +479,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="T1" s="7" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Z1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Z1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="49.5">
       <c r="A2" s="2"/>
@@ -608,16 +609,16 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -674,13 +675,13 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="8">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8">
-        <v>4</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7">
         <v>5</v>
       </c>
     </row>
@@ -700,13 +701,13 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -714,19 +715,19 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="9">
-        <v>6</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
         <v>8</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
     </row>
@@ -743,13 +744,13 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="8">
-        <v>6</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7">
         <v>4</v>
       </c>
     </row>
@@ -766,6 +767,15 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
+      <c r="H11" s="7">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="6" t="s">
@@ -780,6 +790,15 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="6" t="s">
@@ -794,6 +813,15 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="6" t="s">
@@ -808,6 +836,15 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="6" t="s">
@@ -822,11 +859,20 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -839,8 +885,17 @@
       <c r="D17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" s="8">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -853,8 +908,17 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -867,8 +931,17 @@
       <c r="D19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -881,8 +954,17 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -894,6 +976,15 @@
       </c>
       <c r="D21" s="1">
         <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -457,10 +457,10 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -621,6 +621,15 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
@@ -644,6 +653,15 @@
       <c r="J4" s="1">
         <v>5</v>
       </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
@@ -667,6 +685,15 @@
       <c r="J5" s="1">
         <v>4</v>
       </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5" t="s">
@@ -684,6 +711,15 @@
       <c r="J6" s="7">
         <v>5</v>
       </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
@@ -710,6 +746,15 @@
       <c r="J7" s="7">
         <v>5</v>
       </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
@@ -730,6 +775,15 @@
       <c r="J8" s="7">
         <v>5</v>
       </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5" t="s">
@@ -752,6 +806,15 @@
       </c>
       <c r="J9" s="7">
         <v>4</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3</v>
+      </c>
+      <c r="P9" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\rekap-tahfidz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="11850"/>
+    <workbookView windowWidth="20895" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Februari" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Pekan 1</t>
   </si>
@@ -105,8 +100,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +134,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +299,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,43 +494,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="21" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Good" xfId="30" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="34" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="36" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="37" builtinId="35"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="39" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
+    <cellStyle name="Currency" xfId="41" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +819,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -453,70 +1071,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="2.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.57142857142857" style="1" customWidth="1"/>
+    <col min="3" max="6" width="2.57142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" customWidth="1"/>
-    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="1" customWidth="1"/>
-    <col min="14" max="24" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.71428571428571" style="1" customWidth="1"/>
+    <col min="10" max="12" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28571428571429" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.57142857142857" style="1" customWidth="1"/>
+    <col min="16" max="24" width="2.42857142857143" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="30" width="2.42578125" style="1" customWidth="1"/>
+    <col min="26" max="30" width="2.42857142857143" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:30">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="T1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Z1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-    </row>
-    <row r="2" spans="1:30" ht="49.5">
-      <c r="A2" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" ht="48.05" spans="2:30">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -593,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -609,29 +1230,29 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
         <v>1</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -663,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -695,20 +1316,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
         <v>5</v>
       </c>
       <c r="N6" s="1">
@@ -721,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -737,13 +1358,13 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="N7" s="1">
@@ -756,23 +1377,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>8</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
       <c r="N8" s="1">
@@ -785,8 +1406,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1">
@@ -798,26 +1419,26 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>6</v>
       </c>
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7">
-        <v>4</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5">
         <v>6</v>
       </c>
-      <c r="O9" s="7">
-        <v>3</v>
-      </c>
-      <c r="P9" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="O9" s="5">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -830,18 +1451,27 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>30</v>
       </c>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1">
@@ -853,18 +1483,27 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
         <v>6</v>
       </c>
-      <c r="J12" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="6" t="s">
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1">
@@ -876,18 +1515,27 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>9</v>
       </c>
-      <c r="J13" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="6" t="s">
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1">
@@ -908,9 +1556,18 @@
       <c r="J14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="6" t="s">
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1">
@@ -922,21 +1579,27 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="6" t="s">
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1">
@@ -948,18 +1611,27 @@
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="8">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
         <v>10</v>
       </c>
-      <c r="J17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1">
@@ -971,18 +1643,27 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>7</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>7</v>
       </c>
-      <c r="J18" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="6" t="s">
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>8</v>
+      </c>
+      <c r="O18" s="1">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
@@ -1003,9 +1684,18 @@
       <c r="J19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="N19" s="7">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1">
@@ -1017,18 +1707,27 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <v>7</v>
       </c>
-      <c r="J20" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
@@ -1040,13 +1739,22 @@
       <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>9</v>
       </c>
       <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1058,7 +1766,8 @@
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Z1:AD1"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2021.xlsx
+++ b/2021.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Februari" sheetId="1" r:id="rId1"/>
+    <sheet name="Maret" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>Pekan 1</t>
   </si>
@@ -455,11 +456,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1297,4 +1298,953 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="2.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="1" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" style="1" customWidth="1"/>
+    <col min="16" max="20" width="2.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="2.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="3" style="1" customWidth="1"/>
+    <col min="26" max="30" width="2.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="T1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30" ht="49.5">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Z1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1308,7 +1308,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1460,9 +1460,15 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="6">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1497,9 +1503,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1534,9 +1546,15 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1571,9 +1589,15 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1608,9 +1632,15 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1645,9 +1675,15 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1697,8 +1733,15 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1727,10 +1770,19 @@
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1757,8 +1809,15 @@
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1787,8 +1846,15 @@
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1817,8 +1883,15 @@
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1874,8 +1947,15 @@
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1904,8 +1984,15 @@
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1934,8 +2021,15 @@
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1964,8 +2058,15 @@
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1994,8 +2095,15 @@
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -1308,7 +1308,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1472,9 +1472,15 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="N3" s="4">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4">
+        <v>5</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1515,9 +1521,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>4</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -1558,9 +1570,15 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>4</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1601,9 +1619,15 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1644,9 +1668,15 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="N7" s="4">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>4</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1687,9 +1717,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="N8" s="6">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4">
+        <v>6</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1996,8 +2032,12 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -144,11 +144,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,11 +159,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,51 +176,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +206,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,16 +243,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +295,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,13 +397,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,151 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -537,47 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -589,142 +589,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1928,29 +1928,35 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.57142857142857" style="1" customWidth="1"/>
-    <col min="3" max="6" width="2.57142857142857" style="1" customWidth="1"/>
+    <col min="3" max="5" width="2.57142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.23809523809524" style="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" customWidth="1"/>
     <col min="8" max="9" width="3.71428571428571" style="1" customWidth="1"/>
-    <col min="10" max="12" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="10" max="11" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.11428571428571" style="1" customWidth="1"/>
     <col min="13" max="13" width="3.28571428571429" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42857142857143" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.57142857142857" style="1" customWidth="1"/>
-    <col min="16" max="20" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="14" max="15" width="3.57142857142857" style="1" customWidth="1"/>
+    <col min="16" max="17" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="18" max="18" width="3.23809523809524" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.57142857142857" style="1" customWidth="1"/>
     <col min="21" max="21" width="3.71428571428571" style="1" customWidth="1"/>
-    <col min="22" max="24" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="22" max="23" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85714285714286" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="30" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="26" max="29" width="2.42857142857143" style="1" customWidth="1"/>
+    <col min="30" max="30" width="2.98095238095238" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2002,10 +2008,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="3" t="s">
@@ -2018,55 +2024,55 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2409,24 +2415,36 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>5</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="7">
         <v>2</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="U10" s="5">
+        <v>4</v>
+      </c>
+      <c r="V10" s="5">
+        <v>5</v>
+      </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -2446,26 +2464,43 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>4</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="N11" s="5">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7</v>
+      </c>
+      <c r="P11" s="5">
+        <v>5</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="T11" s="7">
+        <v>8</v>
+      </c>
+      <c r="U11" s="5">
+        <v>6</v>
+      </c>
+      <c r="V11" s="5">
+        <v>5</v>
+      </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -2488,21 +2523,39 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="5">
+        <v>9</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="N12" s="7">
+        <v>10</v>
+      </c>
+      <c r="O12" s="5">
+        <v>8</v>
+      </c>
+      <c r="P12" s="5">
+        <v>5</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="T12" s="5">
+        <v>10</v>
+      </c>
+      <c r="U12" s="5">
+        <v>5</v>
+      </c>
+      <c r="V12" s="5">
+        <v>5</v>
+      </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -2580,21 +2633,41 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="N14" s="5">
+        <v>6</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="T14" s="5">
+        <v>6</v>
+      </c>
+      <c r="U14" s="5">
+        <v>3</v>
+      </c>
+      <c r="V14" s="5">
+        <v>5</v>
+      </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -2644,21 +2717,39 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5">
+        <v>4</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="N16" s="7">
+        <v>4</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5</v>
+      </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="T16" s="5">
+        <v>4</v>
+      </c>
+      <c r="U16" s="5">
+        <v>4</v>
+      </c>
+      <c r="V16" s="5">
+        <v>5</v>
+      </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -2685,21 +2776,35 @@
         <v>9</v>
       </c>
       <c r="I17" s="5">
-        <v>8</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="N17" s="7">
+        <v>10</v>
+      </c>
+      <c r="O17" s="5">
+        <v>7</v>
+      </c>
+      <c r="P17" s="5">
+        <v>5</v>
+      </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="T17" s="5">
+        <v>10</v>
+      </c>
+      <c r="U17" s="5">
+        <v>5</v>
+      </c>
+      <c r="V17" s="5">
+        <v>5</v>
+      </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -2725,18 +2830,31 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="5">
+        <v>5</v>
+      </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5</v>
+      </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="T18" s="5">
+        <v>3</v>
+      </c>
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+      <c r="V18" s="5">
+        <v>5</v>
+      </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -2759,21 +2877,39 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="N19" s="7">
+        <v>4</v>
+      </c>
+      <c r="O19" s="5">
+        <v>4</v>
+      </c>
+      <c r="P19" s="5">
+        <v>5</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="T19" s="5">
+        <v>4</v>
+      </c>
+      <c r="U19" s="5">
+        <v>3</v>
+      </c>
+      <c r="V19" s="5">
+        <v>5</v>
+      </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -2796,21 +2932,39 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="N20" s="7">
+        <v>4</v>
+      </c>
+      <c r="O20" s="5">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="T20" s="5">
+        <v>4</v>
+      </c>
+      <c r="U20" s="5">
+        <v>3</v>
+      </c>
+      <c r="V20" s="5">
+        <v>5</v>
+      </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>

--- a/2021.xlsx
+++ b/2021.xlsx
@@ -191,13 +191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -209,6 +203,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,41 +514,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="T1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Z1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="T1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Z1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
     </row>
     <row r="2" spans="1:30" ht="49.5">
       <c r="B2" s="2" t="s">
@@ -1336,10 +1336,10 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1362,1126 +1362,1157 @@
     <col min="22" max="23" width="2.42578125" style="1" customWidth="1"/>
     <col min="24" max="24" width="2.85546875" style="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="1" customWidth="1"/>
-    <col min="26" max="29" width="2.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="2.42578125" style="1" customWidth="1"/>
     <col min="30" max="30" width="3" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
     </row>
     <row r="2" spans="1:30" ht="49.5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="11" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="11" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="11" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>8</v>
       </c>
-      <c r="D3" s="13">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14">
+      <c r="D3" s="11">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12">
         <v>9</v>
       </c>
-      <c r="I3" s="13">
-        <v>7</v>
-      </c>
-      <c r="J3" s="13">
-        <v>3</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13">
+      <c r="I3" s="11">
+        <v>7</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11">
         <v>9</v>
       </c>
-      <c r="O3" s="13">
-        <v>4</v>
-      </c>
-      <c r="P3" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13">
+      <c r="O3" s="11">
+        <v>4</v>
+      </c>
+      <c r="P3" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11">
         <v>9</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="11">
         <v>2</v>
       </c>
-      <c r="V3" s="13">
-        <v>5</v>
-      </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="V3" s="11">
+        <v>5</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13">
-        <v>5</v>
-      </c>
-      <c r="O4" s="13">
-        <v>3</v>
-      </c>
-      <c r="P4" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
-        <v>5</v>
-      </c>
-      <c r="U4" s="13">
-        <v>5</v>
-      </c>
-      <c r="V4" s="13">
-        <v>4</v>
-      </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3</v>
+      </c>
+      <c r="P4" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11">
+        <v>5</v>
+      </c>
+      <c r="U4" s="11">
+        <v>5</v>
+      </c>
+      <c r="V4" s="11">
+        <v>4</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13">
-        <v>5</v>
-      </c>
-      <c r="I5" s="13">
-        <v>3</v>
-      </c>
-      <c r="J5" s="13">
-        <v>3</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13">
-        <v>5</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11">
+        <v>5</v>
+      </c>
+      <c r="O5" s="11">
         <v>2</v>
       </c>
-      <c r="P5" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
-        <v>5</v>
-      </c>
-      <c r="U5" s="13">
-        <v>3</v>
-      </c>
-      <c r="V5" s="13">
-        <v>5</v>
-      </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="P5" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11">
+        <v>5</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
-        <v>4</v>
-      </c>
-      <c r="I6" s="13">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13">
-        <v>4</v>
-      </c>
-      <c r="O6" s="13">
-        <v>4</v>
-      </c>
-      <c r="P6" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13">
-        <v>4</v>
-      </c>
-      <c r="U6" s="13">
-        <v>5</v>
-      </c>
-      <c r="V6" s="13">
-        <v>5</v>
-      </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
+        <v>4</v>
+      </c>
+      <c r="O6" s="11">
+        <v>4</v>
+      </c>
+      <c r="P6" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11">
+        <v>4</v>
+      </c>
+      <c r="U6" s="11">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11">
+        <v>5</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
-        <v>7</v>
-      </c>
-      <c r="I7" s="13">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13">
-        <v>7</v>
-      </c>
-      <c r="O7" s="13">
-        <v>5</v>
-      </c>
-      <c r="P7" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13">
-        <v>7</v>
-      </c>
-      <c r="U7" s="13">
-        <v>5</v>
-      </c>
-      <c r="V7" s="13">
-        <v>4</v>
-      </c>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
+      <c r="B7" s="11">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11">
+        <v>7</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11">
+        <v>7</v>
+      </c>
+      <c r="U7" s="11">
+        <v>5</v>
+      </c>
+      <c r="V7" s="11">
+        <v>4</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13">
-        <v>6</v>
-      </c>
-      <c r="J8" s="13">
-        <v>3</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14">
-        <v>7</v>
-      </c>
-      <c r="O8" s="13">
-        <v>6</v>
-      </c>
-      <c r="P8" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13">
-        <v>7</v>
-      </c>
-      <c r="U8" s="13">
-        <v>3</v>
-      </c>
-      <c r="V8" s="13">
-        <v>5</v>
-      </c>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12">
+        <v>7</v>
+      </c>
+      <c r="O8" s="11">
+        <v>6</v>
+      </c>
+      <c r="P8" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11">
+        <v>7</v>
+      </c>
+      <c r="U8" s="11">
+        <v>3</v>
+      </c>
+      <c r="V8" s="11">
+        <v>5</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="13">
-        <v>5</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
+      <c r="I10" s="11">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
         <v>1</v>
       </c>
-      <c r="O10" s="13">
-        <v>5</v>
-      </c>
-      <c r="P10" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14">
+      <c r="O10" s="11">
+        <v>5</v>
+      </c>
+      <c r="P10" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12">
         <v>2</v>
       </c>
-      <c r="U10" s="13">
-        <v>4</v>
-      </c>
-      <c r="V10" s="13">
-        <v>5</v>
-      </c>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
+      <c r="U10" s="11">
+        <v>4</v>
+      </c>
+      <c r="V10" s="11">
+        <v>5</v>
+      </c>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="12">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="13">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <v>7</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11">
         <v>11</v>
       </c>
-      <c r="J11" s="13">
-        <v>5</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
-        <v>7</v>
-      </c>
-      <c r="O11" s="13">
-        <v>7</v>
-      </c>
-      <c r="P11" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14">
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <v>7</v>
+      </c>
+      <c r="O11" s="11">
+        <v>7</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12">
         <v>8</v>
       </c>
-      <c r="U11" s="13">
-        <v>6</v>
-      </c>
-      <c r="V11" s="13">
-        <v>5</v>
-      </c>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
+      <c r="U11" s="11">
+        <v>6</v>
+      </c>
+      <c r="V11" s="11">
+        <v>5</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>9</v>
       </c>
-      <c r="I12" s="13">
-        <v>6</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14">
+      <c r="I12" s="11">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11">
+        <v>5</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12">
         <v>10</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>8</v>
       </c>
-      <c r="P12" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13">
+      <c r="P12" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11">
         <v>10</v>
       </c>
-      <c r="U12" s="13">
-        <v>5</v>
-      </c>
-      <c r="V12" s="13">
-        <v>5</v>
-      </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
+      <c r="U12" s="11">
+        <v>5</v>
+      </c>
+      <c r="V12" s="11">
+        <v>5</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="I13" s="11">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
         <v>2</v>
       </c>
-      <c r="O13" s="13">
-        <v>5</v>
-      </c>
-      <c r="P13" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13">
+      <c r="O13" s="11">
+        <v>5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11">
         <v>2</v>
       </c>
-      <c r="U13" s="13">
-        <v>5</v>
-      </c>
-      <c r="V13" s="13">
-        <v>5</v>
-      </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
+      <c r="U13" s="11">
+        <v>5</v>
+      </c>
+      <c r="V13" s="11">
+        <v>5</v>
+      </c>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13">
-        <v>3</v>
-      </c>
-      <c r="J14" s="13">
-        <v>5</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="B14" s="8">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
-        <v>6</v>
-      </c>
-      <c r="O14" s="13">
-        <v>4</v>
-      </c>
-      <c r="P14" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13">
-        <v>6</v>
-      </c>
-      <c r="U14" s="13">
-        <v>3</v>
-      </c>
-      <c r="V14" s="13">
-        <v>5</v>
-      </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <v>6</v>
+      </c>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+      <c r="P14" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11">
+        <v>6</v>
+      </c>
+      <c r="U14" s="11">
+        <v>3</v>
+      </c>
+      <c r="V14" s="11">
+        <v>5</v>
+      </c>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
-        <v>3</v>
-      </c>
-      <c r="I16" s="13">
-        <v>4</v>
-      </c>
-      <c r="J16" s="13">
-        <v>4</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14">
-        <v>4</v>
-      </c>
-      <c r="O16" s="13">
-        <v>4</v>
-      </c>
-      <c r="P16" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13">
-        <v>4</v>
-      </c>
-      <c r="U16" s="13">
-        <v>4</v>
-      </c>
-      <c r="V16" s="13">
-        <v>5</v>
-      </c>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12">
+        <v>4</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4</v>
+      </c>
+      <c r="P16" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11">
+        <v>4</v>
+      </c>
+      <c r="U16" s="11">
+        <v>4</v>
+      </c>
+      <c r="V16" s="11">
+        <v>5</v>
+      </c>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>9</v>
       </c>
-      <c r="C17" s="13">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="C17" s="11">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
         <v>9</v>
       </c>
-      <c r="I17" s="13">
-        <v>7</v>
-      </c>
-      <c r="J17" s="13">
-        <v>5</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14">
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12">
         <v>10</v>
       </c>
-      <c r="O17" s="13">
-        <v>7</v>
-      </c>
-      <c r="P17" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13">
+      <c r="O17" s="11">
+        <v>7</v>
+      </c>
+      <c r="P17" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11">
         <v>10</v>
       </c>
-      <c r="U17" s="13">
-        <v>5</v>
-      </c>
-      <c r="V17" s="13">
-        <v>5</v>
-      </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
+      <c r="U17" s="11">
+        <v>5</v>
+      </c>
+      <c r="V17" s="11">
+        <v>5</v>
+      </c>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13">
-        <v>3</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
-        <v>5</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13">
-        <v>3</v>
-      </c>
-      <c r="O18" s="13">
-        <v>3</v>
-      </c>
-      <c r="P18" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13">
-        <v>3</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="11">
+        <v>3</v>
+      </c>
+      <c r="P18" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11">
+        <v>3</v>
+      </c>
+      <c r="U18" s="11">
         <v>2</v>
       </c>
-      <c r="V18" s="13">
-        <v>5</v>
-      </c>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="V18" s="11">
+        <v>5</v>
+      </c>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13">
-        <v>3</v>
-      </c>
-      <c r="C19" s="13">
-        <v>4</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <v>3</v>
-      </c>
-      <c r="I19" s="13">
-        <v>4</v>
-      </c>
-      <c r="J19" s="13">
-        <v>4</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14">
-        <v>4</v>
-      </c>
-      <c r="O19" s="13">
-        <v>4</v>
-      </c>
-      <c r="P19" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13">
-        <v>4</v>
-      </c>
-      <c r="U19" s="13">
-        <v>3</v>
-      </c>
-      <c r="V19" s="13">
-        <v>5</v>
-      </c>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12">
+        <v>4</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4</v>
+      </c>
+      <c r="P19" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11">
+        <v>4</v>
+      </c>
+      <c r="U19" s="11">
+        <v>3</v>
+      </c>
+      <c r="V19" s="11">
+        <v>5</v>
+      </c>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13">
-        <v>4</v>
-      </c>
-      <c r="D20" s="13">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13">
-        <v>3</v>
-      </c>
-      <c r="I20" s="13">
-        <v>4</v>
-      </c>
-      <c r="J20" s="13">
-        <v>4</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14">
-        <v>4</v>
-      </c>
-      <c r="O20" s="13">
-        <v>4</v>
-      </c>
-      <c r="P20" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13">
-        <v>4</v>
-      </c>
-      <c r="U20" s="13">
-        <v>3</v>
-      </c>
-      <c r="V20" s="13">
-        <v>5</v>
-      </c>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="11">
+        <v>4</v>
+      </c>
+      <c r="J20" s="11">
+        <v>4</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12">
+        <v>4</v>
+      </c>
+      <c r="O20" s="11">
+        <v>4</v>
+      </c>
+      <c r="P20" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11">
+        <v>4</v>
+      </c>
+      <c r="U20" s="11">
+        <v>3</v>
+      </c>
+      <c r="V20" s="11">
+        <v>5</v>
+      </c>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30">
       <c r="C21" s="4"/>
